--- a/RANKING.xlsx
+++ b/RANKING.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dumps\Scores output WP-OSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B9BED4-55AB-4977-AC25-702290017C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2339511-22B4-4192-BB34-67A3666C5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ranking overall" sheetId="3" r:id="rId1"/>
-    <sheet name="Detail graph" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId3"/>
+    <sheet name="Ranks" sheetId="8" r:id="rId1"/>
+    <sheet name="Ranking overall" sheetId="3" r:id="rId2"/>
+    <sheet name="Detail graph" sheetId="4" r:id="rId3"/>
     <sheet name="threshold 300m" sheetId="5" r:id="rId4"/>
     <sheet name="threshold 600m" sheetId="6" r:id="rId5"/>
     <sheet name="threshold 1000m" sheetId="7" r:id="rId6"/>
@@ -400,6 +400,614 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> of park-access within reach of threshold, ordered at overall score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ranks!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reach 300m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ranks!$A$22:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Tel Aviv, Israel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vancouver, Canada</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Washington D.C. United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin, Ireland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Denver, United States</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ghent, Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Philadelphia, United States</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Amsterdam, Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dhaka Metrop., Bangladesh</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shanghai, China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ranks!$B$22:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FAD-4915-B185-C1CACB3EF67B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ranks!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reach 600m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ranks!$A$22:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Tel Aviv, Israel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vancouver, Canada</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Washington D.C. United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin, Ireland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Denver, United States</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ghent, Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Philadelphia, United States</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Amsterdam, Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dhaka Metrop., Bangladesh</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shanghai, China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ranks!$C$22:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FAD-4915-B185-C1CACB3EF67B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ranks!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reach 1000m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ranks!$A$22:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Tel Aviv, Israel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vancouver, Canada</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Washington D.C. United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin, Ireland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Denver, United States</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ghent, Belgium</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Philadelphia, United States</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Amsterdam, Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dhaka Metrop., Bangladesh</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shanghai, China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ranks!$D$22:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FAD-4915-B185-C1CACB3EF67B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="585426744"/>
+        <c:axId val="585423864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="585426744"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585423864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585423864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585426744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -851,7 +1459,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2215,614 +2823,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Access</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> to parks within reach of threshold, ordered at overall score</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet7!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reach 300m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:shade val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet7!$A$22:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Tel Aviv, Israel</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vancouver, Canada</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Washington D.C. United States</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dublin, Ireland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Denver, United States</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ghent, Belgium</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Philadelphia, United States</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Amsterdam, Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Dhaka Metrop., Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Shanghai, China</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet7!$B$22:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>33.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FAD-4915-B185-C1CACB3EF67B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet7!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reach 600m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet7!$A$22:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Tel Aviv, Israel</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vancouver, Canada</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Washington D.C. United States</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dublin, Ireland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Denver, United States</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ghent, Belgium</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Philadelphia, United States</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Amsterdam, Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Dhaka Metrop., Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Shanghai, China</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet7!$C$22:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>32.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1999999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FAD-4915-B185-C1CACB3EF67B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet7!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reach 1000m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:tint val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet7!$A$22:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Tel Aviv, Israel</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vancouver, Canada</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Washington D.C. United States</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dublin, Ireland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Denver, United States</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ghent, Belgium</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Philadelphia, United States</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Amsterdam, Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Dhaka Metrop., Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Shanghai, China</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet7!$D$22:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>24.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7FAD-4915-B185-C1CACB3EF67B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="585426744"/>
-        <c:axId val="585423864"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="585426744"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="585423864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="585423864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="585426744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4265,42 +4265,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -4345,8 +4311,42 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -4471,6 +4471,511 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4946,511 +5451,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -7385,6 +7385,47 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787717</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7BEC7F-5881-9D16-6F2E-E276DFE95D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7425,7 +7466,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7452,47 +7493,6 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>787717</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7BEC7F-5881-9D16-6F2E-E276DFE95D98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7900,1344 +7900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8DEA8B-6548-4615-8EAD-84000BAA9FDA}">
-  <dimension ref="A1:S42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="J23:K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!C26,'WorldPoP 250m data'!C30,'WorldPoP 250m data'!C34)</f>
-        <v>9.6466666666666659E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!D26,'WorldPoP 250m data'!D30,'WorldPoP 250m data'!D34)</f>
-        <v>8.9099999999999999E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!E26,'WorldPoP 250m data'!E30,'WorldPoP 250m data'!E34)</f>
-        <v>0.24476666666666669</v>
-      </c>
-      <c r="F2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!F26,'WorldPoP 250m data'!F30,'WorldPoP 250m data'!F34)</f>
-        <v>8.0266666666666667E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!G26,'WorldPoP 250m data'!G30,'WorldPoP 250m data'!G34)</f>
-        <v>1.7666666666666667E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!H26,'WorldPoP 250m data'!H30,'WorldPoP 250m data'!H34)</f>
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="I2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!I26,'WorldPoP 250m data'!I30,'WorldPoP 250m data'!I34)</f>
-        <v>0.27653333333333335</v>
-      </c>
-      <c r="J2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!J26,'WorldPoP 250m data'!J30,'WorldPoP 250m data'!J34)</f>
-        <v>0.4573666666666667</v>
-      </c>
-      <c r="K2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!K26,'WorldPoP 250m data'!K30,'WorldPoP 250m data'!K34)</f>
-        <v>0.29123333333333334</v>
-      </c>
-      <c r="L2" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!L26,'WorldPoP 250m data'!L30,'WorldPoP 250m data'!L34)</f>
-        <v>1.2211232082740787E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!C27,'WorldPoP 250m data'!C31,'WorldPoP 250m data'!C35)</f>
-        <v>0.24873333333333333</v>
-      </c>
-      <c r="D3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!D27,'WorldPoP 250m data'!D31,'WorldPoP 250m data'!D35)</f>
-        <v>0.25456666666666666</v>
-      </c>
-      <c r="E3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!E27,'WorldPoP 250m data'!E31,'WorldPoP 250m data'!E35)</f>
-        <v>0.17763333333333334</v>
-      </c>
-      <c r="F3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!F27,'WorldPoP 250m data'!F31,'WorldPoP 250m data'!F35)</f>
-        <v>0.22646666666666668</v>
-      </c>
-      <c r="G3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!G27,'WorldPoP 250m data'!G31,'WorldPoP 250m data'!G35)</f>
-        <v>7.1299999999999988E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!H27,'WorldPoP 250m data'!H31,'WorldPoP 250m data'!H35)</f>
-        <v>0.2790333333333333</v>
-      </c>
-      <c r="I3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!I27,'WorldPoP 250m data'!I31,'WorldPoP 250m data'!I35)</f>
-        <v>0.30093333333333333</v>
-      </c>
-      <c r="J3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!J27,'WorldPoP 250m data'!J31,'WorldPoP 250m data'!J35)</f>
-        <v>0.24286666666666668</v>
-      </c>
-      <c r="K3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!K27,'WorldPoP 250m data'!K31,'WorldPoP 250m data'!K35)</f>
-        <v>0.30590000000000001</v>
-      </c>
-      <c r="L3" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!L27,'WorldPoP 250m data'!L31,'WorldPoP 250m data'!L35)</f>
-        <v>5.3818735715549536E-2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!C28,'WorldPoP 250m data'!C32,'WorldPoP 250m data'!C36)</f>
-        <v>0.25020000000000003</v>
-      </c>
-      <c r="D4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!D28,'WorldPoP 250m data'!D32,'WorldPoP 250m data'!D36)</f>
-        <v>0.24929999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!E28,'WorldPoP 250m data'!E32,'WorldPoP 250m data'!E36)</f>
-        <v>0.15816666666666668</v>
-      </c>
-      <c r="F4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!F28,'WorldPoP 250m data'!F32,'WorldPoP 250m data'!F36)</f>
-        <v>0.19293333333333332</v>
-      </c>
-      <c r="G4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!G28,'WorldPoP 250m data'!G32,'WorldPoP 250m data'!G36)</f>
-        <v>0.11646666666666668</v>
-      </c>
-      <c r="H4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!H28,'WorldPoP 250m data'!H32,'WorldPoP 250m data'!H36)</f>
-        <v>0.22690000000000002</v>
-      </c>
-      <c r="I4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!I28,'WorldPoP 250m data'!I32,'WorldPoP 250m data'!I36)</f>
-        <v>0.21013333333333337</v>
-      </c>
-      <c r="J4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!J28,'WorldPoP 250m data'!J32,'WorldPoP 250m data'!J36)</f>
-        <v>0.15276666666666666</v>
-      </c>
-      <c r="K4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!K28,'WorldPoP 250m data'!K32,'WorldPoP 250m data'!K36)</f>
-        <v>0.2036</v>
-      </c>
-      <c r="L4" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!L28,'WorldPoP 250m data'!L32,'WorldPoP 250m data'!L36)</f>
-        <v>8.3182986352598756E-2</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!C29,'WorldPoP 250m data'!C33,'WorldPoP 250m data'!C37)</f>
-        <v>0.40453333333333336</v>
-      </c>
-      <c r="D5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!D29,'WorldPoP 250m data'!D33,'WorldPoP 250m data'!D37)</f>
-        <v>0.40706666666666669</v>
-      </c>
-      <c r="E5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!E29,'WorldPoP 250m data'!E33,'WorldPoP 250m data'!E37)</f>
-        <v>0.41943333333333332</v>
-      </c>
-      <c r="F5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!F29,'WorldPoP 250m data'!F33,'WorldPoP 250m data'!F37)</f>
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="G5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!G29,'WorldPoP 250m data'!G33,'WorldPoP 250m data'!G37)</f>
-        <v>0.79456666666666675</v>
-      </c>
-      <c r="H5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!H29,'WorldPoP 250m data'!H33,'WorldPoP 250m data'!H37)</f>
-        <v>0.29330000000000006</v>
-      </c>
-      <c r="I5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!I29,'WorldPoP 250m data'!I33,'WorldPoP 250m data'!I37)</f>
-        <v>0.21243333333333336</v>
-      </c>
-      <c r="J5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!J29,'WorldPoP 250m data'!J33,'WorldPoP 250m data'!J37)</f>
-        <v>0.14703333333333332</v>
-      </c>
-      <c r="K5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!K29,'WorldPoP 250m data'!K33,'WorldPoP 250m data'!K37)</f>
-        <v>0.19926666666666668</v>
-      </c>
-      <c r="L5" s="1">
-        <f>AVERAGE('WorldPoP 250m data'!L29,'WorldPoP 250m data'!L33,'WorldPoP 250m data'!L37)</f>
-        <v>0.85078704584911036</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!C26,'CPoPGrid 250m data'!C30,'CPoPGrid 250m data'!C34)</f>
-        <v>0.10333333333333333</v>
-      </c>
-      <c r="D7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!D26,'CPoPGrid 250m data'!D30,'CPoPGrid 250m data'!D34)</f>
-        <v>0.14633333333333334</v>
-      </c>
-      <c r="E7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!E26,'CPoPGrid 250m data'!E30,'CPoPGrid 250m data'!E34)</f>
-        <v>0.109</v>
-      </c>
-      <c r="F7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!F26,'CPoPGrid 250m data'!F30,'CPoPGrid 250m data'!F34)</f>
-        <v>4.1333333333333333E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!G26,'CPoPGrid 250m data'!G30,'CPoPGrid 250m data'!G34)</f>
-        <v>3.4666666666666672E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!H26,'CPoPGrid 250m data'!H30,'CPoPGrid 250m data'!H34)</f>
-        <v>0.30833333333333335</v>
-      </c>
-      <c r="I7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!I26,'CPoPGrid 250m data'!I30,'CPoPGrid 250m data'!I34)</f>
-        <v>0.26066666666666666</v>
-      </c>
-      <c r="J7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!J26,'CPoPGrid 250m data'!J30,'CPoPGrid 250m data'!J34)</f>
-        <v>0.4868333333333334</v>
-      </c>
-      <c r="K7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!K26,'CPoPGrid 250m data'!K30,'CPoPGrid 250m data'!K34)</f>
-        <v>0.24596666666666667</v>
-      </c>
-      <c r="L7" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!L26,'CPoPGrid 250m data'!L30,'CPoPGrid 250m data'!L34)</f>
-        <v>1.2233333333333332E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!C27,'CPoPGrid 250m data'!C31,'CPoPGrid 250m data'!C35)</f>
-        <v>0.27799999999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!D27,'CPoPGrid 250m data'!D31,'CPoPGrid 250m data'!D35)</f>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!E27,'CPoPGrid 250m data'!E31,'CPoPGrid 250m data'!E35)</f>
-        <v>0.16933333333333334</v>
-      </c>
-      <c r="F8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!F27,'CPoPGrid 250m data'!F31,'CPoPGrid 250m data'!F35)</f>
-        <v>0.21633333333333335</v>
-      </c>
-      <c r="G8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!G27,'CPoPGrid 250m data'!G31,'CPoPGrid 250m data'!G35)</f>
-        <v>8.9333333333333334E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!H27,'CPoPGrid 250m data'!H31,'CPoPGrid 250m data'!H35)</f>
-        <v>0.28066666666666668</v>
-      </c>
-      <c r="I8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!I27,'CPoPGrid 250m data'!I31,'CPoPGrid 250m data'!I35)</f>
-        <v>0.31123333333333331</v>
-      </c>
-      <c r="J8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!J27,'CPoPGrid 250m data'!J31,'CPoPGrid 250m data'!J35)</f>
-        <v>0.27463333333333334</v>
-      </c>
-      <c r="K8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!K27,'CPoPGrid 250m data'!K31,'CPoPGrid 250m data'!K35)</f>
-        <v>0.27386666666666665</v>
-      </c>
-      <c r="L8" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!L27,'CPoPGrid 250m data'!L31,'CPoPGrid 250m data'!L35)</f>
-        <v>5.3799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!C28,'CPoPGrid 250m data'!C32,'CPoPGrid 250m data'!C36)</f>
-        <v>0.24266666666666667</v>
-      </c>
-      <c r="D9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!D28,'CPoPGrid 250m data'!D32,'CPoPGrid 250m data'!D36)</f>
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!E28,'CPoPGrid 250m data'!E32,'CPoPGrid 250m data'!E36)</f>
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!F28,'CPoPGrid 250m data'!F32,'CPoPGrid 250m data'!F36)</f>
-        <v>0.18366666666666667</v>
-      </c>
-      <c r="G9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!G28,'CPoPGrid 250m data'!G32,'CPoPGrid 250m data'!G36)</f>
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="H9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!H28,'CPoPGrid 250m data'!H32,'CPoPGrid 250m data'!H36)</f>
-        <v>0.19199999999999998</v>
-      </c>
-      <c r="I9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!I28,'CPoPGrid 250m data'!I32,'CPoPGrid 250m data'!I36)</f>
-        <v>0.20513333333333331</v>
-      </c>
-      <c r="J9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!J28,'CPoPGrid 250m data'!J32,'CPoPGrid 250m data'!J36)</f>
-        <v>0.1246</v>
-      </c>
-      <c r="K9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!K28,'CPoPGrid 250m data'!K32,'CPoPGrid 250m data'!K36)</f>
-        <v>0.2185</v>
-      </c>
-      <c r="L9" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!L28,'CPoPGrid 250m data'!L32,'CPoPGrid 250m data'!L36)</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!C29,'CPoPGrid 250m data'!C33,'CPoPGrid 250m data'!C37)</f>
-        <v>0.37566666666666665</v>
-      </c>
-      <c r="D10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!D29,'CPoPGrid 250m data'!D33,'CPoPGrid 250m data'!D37)</f>
-        <v>0.32633333333333336</v>
-      </c>
-      <c r="E10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!E29,'CPoPGrid 250m data'!E33,'CPoPGrid 250m data'!E37)</f>
-        <v>0.57200000000000006</v>
-      </c>
-      <c r="F10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!F29,'CPoPGrid 250m data'!F33,'CPoPGrid 250m data'!F37)</f>
-        <v>0.55833333333333335</v>
-      </c>
-      <c r="G10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!G29,'CPoPGrid 250m data'!G33,'CPoPGrid 250m data'!G37)</f>
-        <v>0.745</v>
-      </c>
-      <c r="H10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!H29,'CPoPGrid 250m data'!H33,'CPoPGrid 250m data'!H37)</f>
-        <v>0.21966666666666668</v>
-      </c>
-      <c r="I10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!I29,'CPoPGrid 250m data'!I33,'CPoPGrid 250m data'!I37)</f>
-        <v>0.22299999999999998</v>
-      </c>
-      <c r="J10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!J29,'CPoPGrid 250m data'!J33,'CPoPGrid 250m data'!J37)</f>
-        <v>0.11396666666666666</v>
-      </c>
-      <c r="K10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!K29,'CPoPGrid 250m data'!K33,'CPoPGrid 250m data'!K37)</f>
-        <v>0.26166666666666666</v>
-      </c>
-      <c r="L10" s="1">
-        <f>AVERAGE('CPoPGrid 250m data'!L29,'CPoPGrid 250m data'!L33,'CPoPGrid 250m data'!L37)</f>
-        <v>0.85076666666666656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2,C7)</f>
-        <v>9.9899999999999989E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" ref="D12:L12" si="0">AVERAGE(D2,D7)</f>
-        <v>0.11771666666666666</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17688333333333334</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.08E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6166666666666671E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25456666666666666</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26860000000000001</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.47210000000000008</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26860000000000001</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2222282708037061E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:L15" si="1">AVERAGE(C3,C8)</f>
-        <v>0.26336666666666664</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.27428333333333332</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.17348333333333332</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.22140000000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0316666666666661E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.27984999999999999</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.30608333333333332</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25875000000000004</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.28988333333333333</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3809367857774765E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24643333333333334</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24115</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.15358333333333335</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1883</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12373333333333333</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.20945</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.20763333333333334</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13868333333333333</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.21105000000000002</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3191493176299383E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.3901</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.36670000000000003</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.49571666666666669</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.52931666666666666</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.76978333333333337</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.2564833333333334</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.21771666666666667</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1305</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23046666666666665</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.85077685625788846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="6">
-        <f>(C12*1+C13*0.5+C14*0.25)*100</f>
-        <v>29.319166666666664</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17:L17" si="2">(D12*1+D13*0.5+D14*0.25)*100</f>
-        <v>31.514583333333331</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="2"/>
-        <v>30.202083333333334</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>21.857500000000002</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>9.725833333333334</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="2"/>
-        <v>44.685416666666669</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="2"/>
-        <v>47.355000000000004</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="2"/>
-        <v>63.614583333333343</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="2"/>
-        <v>46.630416666666669</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="2"/>
-        <v>5.9924839930999285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>8.0266666666666667E-2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.22646666666666668</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.19293333333333332</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" t="str">
-        <f>H23&amp;". "&amp;I23</f>
-        <v>1. Tel Aviv, Israel</v>
-      </c>
-      <c r="K23" s="6">
-        <v>63.614583333333343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4.1333333333333333E-2</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.21633333333333335</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.18366666666666667</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.55833333333333335</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" ref="J24:J32" si="3">H24&amp;". "&amp;I24</f>
-        <v>2. Vancouver, Canada</v>
-      </c>
-      <c r="K24" s="6">
-        <v>47.355000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4">
-        <v>8.9099999999999999E-2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.25456666666666666</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.24929999999999999</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.40706666666666669</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>3. Washington DC, United States</v>
-      </c>
-      <c r="K25" s="6">
-        <v>46.630416666666669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.14633333333333334</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.32633333333333336</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="5">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>4. Dublin, Ireland</v>
-      </c>
-      <c r="K26" s="6">
-        <v>44.685416666666669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.7666666666666667E-2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>7.1299999999999988E-2</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.11646666666666668</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.79456666666666675</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>5. Denver, United States</v>
-      </c>
-      <c r="K27" s="6">
-        <v>31.514583333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3.4666666666666672E-2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>8.9333333333333334E-2</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.745</v>
-      </c>
-      <c r="H28" s="5">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>6. Ghent, Belgium</v>
-      </c>
-      <c r="K28" s="6">
-        <v>30.202083333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.2790333333333333</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.22690000000000002</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.29330000000000006</v>
-      </c>
-      <c r="H29" s="5">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>7. Philadelphia, United States</v>
-      </c>
-      <c r="K29" s="6">
-        <v>29.319166666666664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.30833333333333335</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.28066666666666668</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.19199999999999998</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.21966666666666668</v>
-      </c>
-      <c r="H30" s="5">
-        <v>8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>8. Amsterdam, Netherlands</v>
-      </c>
-      <c r="K30" s="6">
-        <v>21.857500000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.24476666666666669</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.17763333333333334</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.15816666666666668</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.41943333333333332</v>
-      </c>
-      <c r="H31" s="5">
-        <v>9</v>
-      </c>
-      <c r="I31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>9. Dhaka Metropolitan, Bangladesh</v>
-      </c>
-      <c r="K31" s="6">
-        <v>9.725833333333334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.109</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.16933333333333334</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.57200000000000006</v>
-      </c>
-      <c r="H32" s="5">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>10. Shanghai, China</v>
-      </c>
-      <c r="K32" s="6">
-        <v>5.9924839930999285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="4">
-        <v>9.6466666666666659E-2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.24873333333333333</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.25020000000000003</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.40453333333333336</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.10333333333333333</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.27799999999999997</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.24266666666666667</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.37566666666666665</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.2211232082740787E-2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.3818735715549536E-2</v>
-      </c>
-      <c r="E35" s="4">
-        <v>8.3182986352598756E-2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0.85078704584911036</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.2233333333333332E-2</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5.3799999999999994E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.85076666666666656</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.4573666666666667</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.24286666666666668</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.15276666666666666</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.14703333333333332</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.4868333333333334</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.27463333333333334</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0.1246</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.11396666666666666</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.27653333333333335</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.30093333333333333</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.21013333333333337</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.21243333333333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.26066666666666666</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.31123333333333331</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.20513333333333331</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.22299999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.29123333333333334</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.30590000000000001</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.2036</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.19926666666666668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.24596666666666667</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.27386666666666665</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.2185</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.26166666666666666</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L23:L32">
-    <sortCondition descending="1" ref="L23:L32"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56471B5C-AAC0-479B-AC59-8CA1BA083525}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA246D9-4696-48EA-846E-2F20E482A7B9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9793,6 +8460,1339 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A20:D20"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8DEA8B-6548-4615-8EAD-84000BAA9FDA}">
+  <dimension ref="A1:S42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="J23:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!C26,'WorldPoP 250m data'!C30,'WorldPoP 250m data'!C34)</f>
+        <v>9.6466666666666659E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!D26,'WorldPoP 250m data'!D30,'WorldPoP 250m data'!D34)</f>
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!E26,'WorldPoP 250m data'!E30,'WorldPoP 250m data'!E34)</f>
+        <v>0.24476666666666669</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!F26,'WorldPoP 250m data'!F30,'WorldPoP 250m data'!F34)</f>
+        <v>8.0266666666666667E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!G26,'WorldPoP 250m data'!G30,'WorldPoP 250m data'!G34)</f>
+        <v>1.7666666666666667E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!H26,'WorldPoP 250m data'!H30,'WorldPoP 250m data'!H34)</f>
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!I26,'WorldPoP 250m data'!I30,'WorldPoP 250m data'!I34)</f>
+        <v>0.27653333333333335</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!J26,'WorldPoP 250m data'!J30,'WorldPoP 250m data'!J34)</f>
+        <v>0.4573666666666667</v>
+      </c>
+      <c r="K2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!K26,'WorldPoP 250m data'!K30,'WorldPoP 250m data'!K34)</f>
+        <v>0.29123333333333334</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!L26,'WorldPoP 250m data'!L30,'WorldPoP 250m data'!L34)</f>
+        <v>1.2211232082740787E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!C27,'WorldPoP 250m data'!C31,'WorldPoP 250m data'!C35)</f>
+        <v>0.24873333333333333</v>
+      </c>
+      <c r="D3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!D27,'WorldPoP 250m data'!D31,'WorldPoP 250m data'!D35)</f>
+        <v>0.25456666666666666</v>
+      </c>
+      <c r="E3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!E27,'WorldPoP 250m data'!E31,'WorldPoP 250m data'!E35)</f>
+        <v>0.17763333333333334</v>
+      </c>
+      <c r="F3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!F27,'WorldPoP 250m data'!F31,'WorldPoP 250m data'!F35)</f>
+        <v>0.22646666666666668</v>
+      </c>
+      <c r="G3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!G27,'WorldPoP 250m data'!G31,'WorldPoP 250m data'!G35)</f>
+        <v>7.1299999999999988E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!H27,'WorldPoP 250m data'!H31,'WorldPoP 250m data'!H35)</f>
+        <v>0.2790333333333333</v>
+      </c>
+      <c r="I3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!I27,'WorldPoP 250m data'!I31,'WorldPoP 250m data'!I35)</f>
+        <v>0.30093333333333333</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!J27,'WorldPoP 250m data'!J31,'WorldPoP 250m data'!J35)</f>
+        <v>0.24286666666666668</v>
+      </c>
+      <c r="K3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!K27,'WorldPoP 250m data'!K31,'WorldPoP 250m data'!K35)</f>
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!L27,'WorldPoP 250m data'!L31,'WorldPoP 250m data'!L35)</f>
+        <v>5.3818735715549536E-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!C28,'WorldPoP 250m data'!C32,'WorldPoP 250m data'!C36)</f>
+        <v>0.25020000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!D28,'WorldPoP 250m data'!D32,'WorldPoP 250m data'!D36)</f>
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!E28,'WorldPoP 250m data'!E32,'WorldPoP 250m data'!E36)</f>
+        <v>0.15816666666666668</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!F28,'WorldPoP 250m data'!F32,'WorldPoP 250m data'!F36)</f>
+        <v>0.19293333333333332</v>
+      </c>
+      <c r="G4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!G28,'WorldPoP 250m data'!G32,'WorldPoP 250m data'!G36)</f>
+        <v>0.11646666666666668</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!H28,'WorldPoP 250m data'!H32,'WorldPoP 250m data'!H36)</f>
+        <v>0.22690000000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!I28,'WorldPoP 250m data'!I32,'WorldPoP 250m data'!I36)</f>
+        <v>0.21013333333333337</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!J28,'WorldPoP 250m data'!J32,'WorldPoP 250m data'!J36)</f>
+        <v>0.15276666666666666</v>
+      </c>
+      <c r="K4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!K28,'WorldPoP 250m data'!K32,'WorldPoP 250m data'!K36)</f>
+        <v>0.2036</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!L28,'WorldPoP 250m data'!L32,'WorldPoP 250m data'!L36)</f>
+        <v>8.3182986352598756E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!C29,'WorldPoP 250m data'!C33,'WorldPoP 250m data'!C37)</f>
+        <v>0.40453333333333336</v>
+      </c>
+      <c r="D5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!D29,'WorldPoP 250m data'!D33,'WorldPoP 250m data'!D37)</f>
+        <v>0.40706666666666669</v>
+      </c>
+      <c r="E5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!E29,'WorldPoP 250m data'!E33,'WorldPoP 250m data'!E37)</f>
+        <v>0.41943333333333332</v>
+      </c>
+      <c r="F5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!F29,'WorldPoP 250m data'!F33,'WorldPoP 250m data'!F37)</f>
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!G29,'WorldPoP 250m data'!G33,'WorldPoP 250m data'!G37)</f>
+        <v>0.79456666666666675</v>
+      </c>
+      <c r="H5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!H29,'WorldPoP 250m data'!H33,'WorldPoP 250m data'!H37)</f>
+        <v>0.29330000000000006</v>
+      </c>
+      <c r="I5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!I29,'WorldPoP 250m data'!I33,'WorldPoP 250m data'!I37)</f>
+        <v>0.21243333333333336</v>
+      </c>
+      <c r="J5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!J29,'WorldPoP 250m data'!J33,'WorldPoP 250m data'!J37)</f>
+        <v>0.14703333333333332</v>
+      </c>
+      <c r="K5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!K29,'WorldPoP 250m data'!K33,'WorldPoP 250m data'!K37)</f>
+        <v>0.19926666666666668</v>
+      </c>
+      <c r="L5" s="1">
+        <f>AVERAGE('WorldPoP 250m data'!L29,'WorldPoP 250m data'!L33,'WorldPoP 250m data'!L37)</f>
+        <v>0.85078704584911036</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!C26,'CPoPGrid 250m data'!C30,'CPoPGrid 250m data'!C34)</f>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="D7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!D26,'CPoPGrid 250m data'!D30,'CPoPGrid 250m data'!D34)</f>
+        <v>0.14633333333333334</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!E26,'CPoPGrid 250m data'!E30,'CPoPGrid 250m data'!E34)</f>
+        <v>0.109</v>
+      </c>
+      <c r="F7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!F26,'CPoPGrid 250m data'!F30,'CPoPGrid 250m data'!F34)</f>
+        <v>4.1333333333333333E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!G26,'CPoPGrid 250m data'!G30,'CPoPGrid 250m data'!G34)</f>
+        <v>3.4666666666666672E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!H26,'CPoPGrid 250m data'!H30,'CPoPGrid 250m data'!H34)</f>
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="I7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!I26,'CPoPGrid 250m data'!I30,'CPoPGrid 250m data'!I34)</f>
+        <v>0.26066666666666666</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!J26,'CPoPGrid 250m data'!J30,'CPoPGrid 250m data'!J34)</f>
+        <v>0.4868333333333334</v>
+      </c>
+      <c r="K7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!K26,'CPoPGrid 250m data'!K30,'CPoPGrid 250m data'!K34)</f>
+        <v>0.24596666666666667</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!L26,'CPoPGrid 250m data'!L30,'CPoPGrid 250m data'!L34)</f>
+        <v>1.2233333333333332E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!C27,'CPoPGrid 250m data'!C31,'CPoPGrid 250m data'!C35)</f>
+        <v>0.27799999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!D27,'CPoPGrid 250m data'!D31,'CPoPGrid 250m data'!D35)</f>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!E27,'CPoPGrid 250m data'!E31,'CPoPGrid 250m data'!E35)</f>
+        <v>0.16933333333333334</v>
+      </c>
+      <c r="F8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!F27,'CPoPGrid 250m data'!F31,'CPoPGrid 250m data'!F35)</f>
+        <v>0.21633333333333335</v>
+      </c>
+      <c r="G8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!G27,'CPoPGrid 250m data'!G31,'CPoPGrid 250m data'!G35)</f>
+        <v>8.9333333333333334E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!H27,'CPoPGrid 250m data'!H31,'CPoPGrid 250m data'!H35)</f>
+        <v>0.28066666666666668</v>
+      </c>
+      <c r="I8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!I27,'CPoPGrid 250m data'!I31,'CPoPGrid 250m data'!I35)</f>
+        <v>0.31123333333333331</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!J27,'CPoPGrid 250m data'!J31,'CPoPGrid 250m data'!J35)</f>
+        <v>0.27463333333333334</v>
+      </c>
+      <c r="K8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!K27,'CPoPGrid 250m data'!K31,'CPoPGrid 250m data'!K35)</f>
+        <v>0.27386666666666665</v>
+      </c>
+      <c r="L8" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!L27,'CPoPGrid 250m data'!L31,'CPoPGrid 250m data'!L35)</f>
+        <v>5.3799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!C28,'CPoPGrid 250m data'!C32,'CPoPGrid 250m data'!C36)</f>
+        <v>0.24266666666666667</v>
+      </c>
+      <c r="D9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!D28,'CPoPGrid 250m data'!D32,'CPoPGrid 250m data'!D36)</f>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!E28,'CPoPGrid 250m data'!E32,'CPoPGrid 250m data'!E36)</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!F28,'CPoPGrid 250m data'!F32,'CPoPGrid 250m data'!F36)</f>
+        <v>0.18366666666666667</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!G28,'CPoPGrid 250m data'!G32,'CPoPGrid 250m data'!G36)</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!H28,'CPoPGrid 250m data'!H32,'CPoPGrid 250m data'!H36)</f>
+        <v>0.19199999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!I28,'CPoPGrid 250m data'!I32,'CPoPGrid 250m data'!I36)</f>
+        <v>0.20513333333333331</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!J28,'CPoPGrid 250m data'!J32,'CPoPGrid 250m data'!J36)</f>
+        <v>0.1246</v>
+      </c>
+      <c r="K9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!K28,'CPoPGrid 250m data'!K32,'CPoPGrid 250m data'!K36)</f>
+        <v>0.2185</v>
+      </c>
+      <c r="L9" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!L28,'CPoPGrid 250m data'!L32,'CPoPGrid 250m data'!L36)</f>
+        <v>8.320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!C29,'CPoPGrid 250m data'!C33,'CPoPGrid 250m data'!C37)</f>
+        <v>0.37566666666666665</v>
+      </c>
+      <c r="D10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!D29,'CPoPGrid 250m data'!D33,'CPoPGrid 250m data'!D37)</f>
+        <v>0.32633333333333336</v>
+      </c>
+      <c r="E10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!E29,'CPoPGrid 250m data'!E33,'CPoPGrid 250m data'!E37)</f>
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="F10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!F29,'CPoPGrid 250m data'!F33,'CPoPGrid 250m data'!F37)</f>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="G10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!G29,'CPoPGrid 250m data'!G33,'CPoPGrid 250m data'!G37)</f>
+        <v>0.745</v>
+      </c>
+      <c r="H10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!H29,'CPoPGrid 250m data'!H33,'CPoPGrid 250m data'!H37)</f>
+        <v>0.21966666666666668</v>
+      </c>
+      <c r="I10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!I29,'CPoPGrid 250m data'!I33,'CPoPGrid 250m data'!I37)</f>
+        <v>0.22299999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!J29,'CPoPGrid 250m data'!J33,'CPoPGrid 250m data'!J37)</f>
+        <v>0.11396666666666666</v>
+      </c>
+      <c r="K10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!K29,'CPoPGrid 250m data'!K33,'CPoPGrid 250m data'!K37)</f>
+        <v>0.26166666666666666</v>
+      </c>
+      <c r="L10" s="1">
+        <f>AVERAGE('CPoPGrid 250m data'!L29,'CPoPGrid 250m data'!L33,'CPoPGrid 250m data'!L37)</f>
+        <v>0.85076666666666656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2,C7)</f>
+        <v>9.9899999999999989E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:L12" si="0">AVERAGE(D2,D7)</f>
+        <v>0.11771666666666666</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17688333333333334</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.08E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6166666666666671E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25456666666666666</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47210000000000008</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2222282708037061E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:L15" si="1">AVERAGE(C3,C8)</f>
+        <v>0.26336666666666664</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27428333333333332</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17348333333333332</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0316666666666661E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27984999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30608333333333332</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25875000000000004</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28988333333333333</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3809367857774765E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24643333333333334</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24115</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15358333333333335</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1883</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12373333333333333</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20945</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20763333333333334</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13868333333333333</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21105000000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3191493176299383E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3901</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49571666666666669</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52931666666666666</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76978333333333337</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2564833333333334</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21771666666666667</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1305</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23046666666666665</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85077685625788846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6">
+        <f>(C12*1+C13*0.5+C14*0.25)*100</f>
+        <v>29.319166666666664</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" ref="D17:L17" si="2">(D12*1+D13*0.5+D14*0.25)*100</f>
+        <v>31.514583333333331</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>30.202083333333334</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>21.857500000000002</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>9.725833333333334</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>44.685416666666669</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
+        <v>47.355000000000004</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="2"/>
+        <v>63.614583333333343</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>46.630416666666669</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9924839930999285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8.0266666666666667E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.22646666666666668</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.19293333333333332</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="str">
+        <f>H23&amp;". "&amp;I23</f>
+        <v>1. Tel Aviv, Israel</v>
+      </c>
+      <c r="K23" s="6">
+        <v>63.614583333333343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.1333333333333333E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.21633333333333335</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.18366666666666667</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ref="J24:J32" si="3">H24&amp;". "&amp;I24</f>
+        <v>2. Vancouver, Canada</v>
+      </c>
+      <c r="K24" s="6">
+        <v>47.355000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.25456666666666666</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.40706666666666669</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>3. Washington DC, United States</v>
+      </c>
+      <c r="K25" s="6">
+        <v>46.630416666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.14633333333333334</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.32633333333333336</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>4. Dublin, Ireland</v>
+      </c>
+      <c r="K26" s="6">
+        <v>44.685416666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.7666666666666667E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7.1299999999999988E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.11646666666666668</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.79456666666666675</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>5. Denver, United States</v>
+      </c>
+      <c r="K27" s="6">
+        <v>31.514583333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.4666666666666672E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8.9333333333333334E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.745</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>6. Ghent, Belgium</v>
+      </c>
+      <c r="K28" s="6">
+        <v>30.202083333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.2790333333333333</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.22690000000000002</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.29330000000000006</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>7. Philadelphia, United States</v>
+      </c>
+      <c r="K29" s="6">
+        <v>29.319166666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.28066666666666668</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.19199999999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.21966666666666668</v>
+      </c>
+      <c r="H30" s="5">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>8. Amsterdam, Netherlands</v>
+      </c>
+      <c r="K30" s="6">
+        <v>21.857500000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.24476666666666669</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.17763333333333334</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.15816666666666668</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.41943333333333332</v>
+      </c>
+      <c r="H31" s="5">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>9. Dhaka Metropolitan, Bangladesh</v>
+      </c>
+      <c r="K31" s="6">
+        <v>9.725833333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.109</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.16933333333333334</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="H32" s="5">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>10. Shanghai, China</v>
+      </c>
+      <c r="K32" s="6">
+        <v>5.9924839930999285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9.6466666666666659E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.24873333333333333</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.25020000000000003</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.40453333333333336</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.27799999999999997</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.24266666666666667</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.37566666666666665</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.2211232082740787E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5.3818735715549536E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>8.3182986352598756E-2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.85078704584911036</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.2233333333333332E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5.3799999999999994E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>8.320000000000001E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.85076666666666656</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.4573666666666667</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.24286666666666668</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.15276666666666666</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.14703333333333332</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.4868333333333334</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.27463333333333334</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.1246</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.11396666666666666</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.27653333333333335</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.30093333333333333</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.21013333333333337</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.21243333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.26066666666666666</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.31123333333333331</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.20513333333333331</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.22299999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.29123333333333334</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.2036</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.19926666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.24596666666666667</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.27386666666666665</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.2185</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.26166666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L23:L32">
+    <sortCondition descending="1" ref="L23:L32"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56471B5C-AAC0-479B-AC59-8CA1BA083525}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD31" sqref="AD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
